--- a/Textbooks, projects/Applied Math/labs/lab_2/lab_2_var_16.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_2/lab_2_var_16.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D8C39-4CC9-4964-9A8E-58DE4175F087}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D770678-AEB0-43C6-9CB9-2505742B1C70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -60,18 +61,28 @@
   <si>
     <t>M</t>
   </si>
+  <si>
+    <t>ε</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,9 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -298,6 +312,378 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93FF-44CA-B37E-310AC6753AB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1108544720"/>
+        <c:axId val="1269741840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1108544720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269741840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1269741840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108544720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$X$2:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Y$2:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-0.895439793230425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.54535128658715915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.78897149983124382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1421914685525758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.62061784956699395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3985267645745729E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.69581226391565743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.34001376811565509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7288793408055234E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.57077466716878789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23329393279120803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.3997990303185347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0290819180940769E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24866841514850191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B1F-4AA1-B90D-09D31EF9FAE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -528,7 +914,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1069,6 +2011,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF10908-A3A5-4C47-9163-5F6011E74E56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1348,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,6 +2364,9 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="X1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,26 +2376,34 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
       </c>
       <c r="C2" s="1">
         <f>(A2+B2)/2</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <f>1/2*SIN(((A2+3)^2)/2)+LN(A2+2)/2-1</f>
+        <f t="shared" ref="D2:F3" si="0">1/2*SIN(((A2+3)^2)/2)+LN(A2+2)/2-1</f>
+        <v>-1.1421914685525758</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
         <v>4.3985267645745729E-2</v>
       </c>
-      <c r="E2" s="1">
-        <f>1/2*SIN(((B2+3)^2)/2)+LN(B2+2)/2-1</f>
-        <v>-0.34001376811565509</v>
-      </c>
       <c r="F2" s="1">
-        <f>1/2*SIN(((C2+3)^2)/2)+LN(C2+2)/2-1</f>
-        <v>-0.69581226391565743</v>
+        <f t="shared" si="0"/>
+        <v>-0.62061784956699395</v>
+      </c>
+      <c r="G2">
+        <f>ABS(A2-C2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>IF(G2&gt;0.001,"no","yes")</f>
+        <v>no</v>
       </c>
       <c r="X2" s="1">
         <v>-1.5</v>
@@ -1420,433 +2416,433 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>IF(D2*F2&gt;0,C2,A2)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3" s="1">
         <f>IF(E2*F2&gt;0,C2,B2)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <f>(A3+B3)/2</f>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="1">
-        <f>1/2*SIN(((A3+3)^2)/2)+LN(A3+2)/2-1</f>
+        <f t="shared" si="0"/>
+        <v>-0.62061784956699395</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
         <v>4.3985267645745729E-2</v>
       </c>
-      <c r="E3" s="1">
-        <f>1/2*SIN(((B3+3)^2)/2)+LN(B3+2)/2-1</f>
-        <v>-0.69581226391565743</v>
-      </c>
       <c r="F3" s="1">
-        <f>1/2*SIN(((C3+3)^2)/2)+LN(C3+2)/2-1</f>
-        <v>-0.21894795921607468</v>
+        <f t="shared" si="0"/>
+        <v>-0.15408882332231733</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="1">ABS(A3-C3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H15" si="2">IF(G3&gt;0.001,"no","yes")</f>
+        <v>no</v>
       </c>
       <c r="X3" s="1">
         <v>-1</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y15" si="0">1/2*SIN(((X3+3)^2)/2)+LN(X3+2)/2-1</f>
+        <f t="shared" ref="Y3:Y15" si="3">1/2*SIN(((X3+3)^2)/2)+LN(X3+2)/2-1</f>
         <v>-0.54535128658715915</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A15" si="1">IF(D3*F3&gt;0,C3,A3)</f>
+        <f t="shared" ref="A4:A15" si="4">IF(D3*F3&gt;0,C3,A3)</f>
+        <v>0.75</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B15" si="5">IF(E3*F3&gt;0,C3,B3)</f>
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B15" si="2">IF(E3*F3&gt;0,C3,B3)</f>
-        <v>1.25</v>
-      </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C15" si="3">(A4+B4)/2</f>
-        <v>1.125</v>
+        <f t="shared" ref="C4:C15" si="6">(A4+B4)/2</f>
+        <v>0.875</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D15" si="4">1/2*SIN(((A4+3)^2)/2)+LN(A4+2)/2-1</f>
+        <f t="shared" ref="D4:D15" si="7">1/2*SIN(((A4+3)^2)/2)+LN(A4+2)/2-1</f>
+        <v>-0.15408882332231733</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E15" si="8">1/2*SIN(((B4+3)^2)/2)+LN(B4+2)/2-1</f>
         <v>4.3985267645745729E-2</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E15" si="5">1/2*SIN(((B4+3)^2)/2)+LN(B4+2)/2-1</f>
-        <v>-0.21894795921607468</v>
-      </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F15" si="6">1/2*SIN(((C4+3)^2)/2)+LN(C4+2)/2-1</f>
-        <v>-3.3403071051654298E-2</v>
+        <f t="shared" ref="F4:F15" si="9">1/2*SIN(((C4+3)^2)/2)+LN(C4+2)/2-1</f>
+        <v>-1.6339567226766327E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
       </c>
       <c r="X4" s="1">
         <v>-0.5</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.78897149983124382</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.9375</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6339567226766327E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="8"/>
+        <v>4.3985267645745729E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="9"/>
+        <v>3.6179242380245391E-2</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.125</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0625</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3985267645745729E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.3403071051654298E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="6"/>
-        <v>2.0540306460768543E-2</v>
+        <v>no</v>
       </c>
       <c r="X5" s="1">
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.1421914685525758</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.90625</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6339567226766327E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="8"/>
+        <v>3.6179242380245391E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="9"/>
+        <v>2.0874867167726796E-2</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>1.0625</v>
-      </c>
-      <c r="B6" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.125</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="3"/>
-        <v>1.09375</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0540306460768543E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.3403071051654298E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.7495671412050005E-3</v>
+        <v>no</v>
       </c>
       <c r="X6" s="1">
         <v>0.5</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.62061784956699395</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.90625</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.890625</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6339567226766327E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0874867167726796E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="9"/>
+        <v>1.049682128215057E-2</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>1.0625</v>
-      </c>
-      <c r="B7" s="1">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.09375</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.078125</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0540306460768543E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.7495671412050005E-3</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="6"/>
-        <v>9.8374925853814688E-3</v>
+        <v>no</v>
       </c>
       <c r="X7" s="1">
         <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3985267645745729E-2</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.890625</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.8828125</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6339567226766327E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="8"/>
+        <v>1.049682128215057E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="9"/>
+        <v>4.6471782719093024E-3</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>1.078125</v>
-      </c>
-      <c r="B8" s="1">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.09375</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0859375</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="4"/>
-        <v>9.8374925853814688E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.7495671412050005E-3</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="6"/>
-        <v>3.7771227271483632E-3</v>
+        <v>no</v>
       </c>
       <c r="X8" s="1">
         <v>1.5</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.69581226391565743</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8828125</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.87890625</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6339567226766327E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6471782719093024E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5601099161615117E-3</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>1.0859375</v>
-      </c>
-      <c r="B9" s="1">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.09375</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="3"/>
-        <v>1.08984375</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="4"/>
-        <v>3.7771227271483632E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.7495671412050005E-3</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="6"/>
-        <v>5.7174193765008319E-4</v>
+        <v>no</v>
       </c>
       <c r="X9" s="1">
         <v>2</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.34001376811565509</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87890625</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.876953125</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6339567226766327E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5601099161615117E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.3604455145709302E-5</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>1.08984375</v>
-      </c>
-      <c r="B10" s="1">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="H10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.09375</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="3"/>
-        <v>1.091796875</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="4"/>
-        <v>5.7174193765008319E-4</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.7495671412050005E-3</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.0744641462459015E-3</v>
+        <v>no</v>
       </c>
       <c r="X10" s="1">
         <v>2.5</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.7288793408055234E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.876953125</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87890625</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.8779296875</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.3604455145709302E-5</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5601099161615117E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="9"/>
+        <v>7.7158949873612492E-4</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>1.08984375</v>
-      </c>
-      <c r="B11" s="1">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1.091796875</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0908203125</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="4"/>
-        <v>5.7174193765008319E-4</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.0744641462459015E-3</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.4774358525436746E-4</v>
+        <v>yes</v>
       </c>
       <c r="X11" s="1">
         <v>3</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.57077466716878789</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.08984375</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0908203125</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="3"/>
-        <v>1.09033203125</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="4"/>
-        <v>5.7174193765008319E-4</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.4774358525436746E-4</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="6"/>
-        <v>1.6290422437648111E-4</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="X12" s="1">
         <v>3.5</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.23329393279120803</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>1.09033203125</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0908203125</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="3"/>
-        <v>1.090576171875</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6290422437648111E-4</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.4774358525436746E-4</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="6"/>
-        <v>-4.2193501623932761E-5</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="X13" s="1">
         <v>4</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.3997990303185347</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.09033203125</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="2"/>
-        <v>1.090576171875</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0904541015625</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6290422437648111E-4</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.2193501623932761E-5</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="6"/>
-        <v>6.0411916503966268E-5</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="X14" s="1">
         <v>4.5</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0290819180940769E-2</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0904541015625</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.090576171875</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="3"/>
-        <v>1.09051513671875</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="4"/>
-        <v>6.0411916503966268E-5</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.2193501623932761E-5</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="6"/>
-        <v>9.1233449202032801E-6</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="X15" s="1">
         <v>5</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.24866841514850191</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +2868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1888,7 +2884,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>A24-B25/C25</f>
         <v>1.3537687162859471</v>
@@ -1904,6 +2900,10 @@
       <c r="D25" s="1">
         <f>ABS(A25-A24)</f>
         <v>0.35376871628594708</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>IF(D25&gt;0.001,"no","yes")</f>
+        <v>no</v>
       </c>
       <c r="G25" s="1">
         <f>G24-H25/$I$24</f>
@@ -1918,285 +2918,1507 @@
         <f>ABS(G25-G24)</f>
         <v>8.797053529149168E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="str">
+        <f>IF(J25&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" ref="A26:A34" si="7">A25-B26/C26</f>
+        <f t="shared" ref="A26:A34" si="10">A25-B26/C26</f>
         <v>1.1456538576239512</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:B34" si="11">1/2*SIN(((A25+3)^2)/2)+LN(A25+2)/2-1</f>
+        <v>-0.42138186085733298</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:C34" si="12">(1/2)*(COS(((A25+3)^2)/2)*(A25+3)+1/(A25+2))</f>
+        <v>-2.0247562503055536</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:D34" si="13">ABS(A26-A25)</f>
+        <v>0.20811485866199586</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" ref="E26:E34" si="14">IF(D26&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ref="G26:G34" si="15">G25-H26/$I$24</f>
+        <v>0.98224934926143548</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ref="H26:H34" si="16">1/2*SIN(((G25+3)^2)/2)+LN(G25+2)/2-1</f>
+        <v>4.4767986047076658E-2</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <f t="shared" ref="J26:J34" si="17">ABS(G26-G25)</f>
+        <v>8.9535972094153538E-3</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" ref="K26:K56" si="18">IF(J26&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0991925566947647</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.7499156228214332E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.2375709478271184</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="13"/>
+        <v>4.6461300929186544E-2</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>no</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="15"/>
+        <v>0.97326398442595918</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="16"/>
+        <v>4.4926824177381475E-2</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <f t="shared" si="17"/>
+        <v>8.9853648354762949E-3</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0908377561021285</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="11"/>
+        <v>-7.5690989955998766E-3</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.90595806706280846</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="13"/>
+        <v>8.3548005926361579E-3</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>no</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96437568394196282</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="16"/>
+        <v>4.4441502419981571E-2</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <f t="shared" si="17"/>
+        <v>8.8883004839963586E-3</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0905264277111071</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="11"/>
+        <v>-2.6244724248147833E-4</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.84299167711742073</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="13"/>
+        <v>3.1132839102143706E-4</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>yes</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="15"/>
+        <v>0.95570990257411315</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="16"/>
+        <v>4.3328906839248171E-2</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <f t="shared" si="17"/>
+        <v>8.6657813678496787E-3</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="G30" s="1">
+        <f t="shared" si="15"/>
+        <v>0.94738149810124028</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="16"/>
+        <v>4.1642022364364317E-2</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
+        <f t="shared" si="17"/>
+        <v>8.3284044728728635E-3</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="G31" s="1">
+        <f t="shared" si="15"/>
+        <v>0.93948861670333694</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="16"/>
+        <v>3.946440698951692E-2</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <f t="shared" si="17"/>
+        <v>7.8928813979033396E-3</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="G32" s="1">
+        <f t="shared" si="15"/>
+        <v>0.93210837377892641</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="16"/>
+        <v>3.6901214622052425E-2</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
+        <f t="shared" si="17"/>
+        <v>7.3802429244105294E-3</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="G33" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92529468646594293</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="16"/>
+        <v>3.4068436564917315E-2</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
+        <f t="shared" si="17"/>
+        <v>6.8136873129834852E-3</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="G34" s="1">
+        <f t="shared" si="15"/>
+        <v>0.91907824236143554</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="16"/>
+        <v>3.1082220522537174E-2</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <f t="shared" si="17"/>
+        <v>6.2164441045073904E-3</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <f t="shared" ref="G35:G45" si="19">G34-H35/$I$24</f>
+        <v>0.91346827465758651</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ref="H35:H45" si="20">1/2*SIN(((G34+3)^2)/2)+LN(G34+2)/2-1</f>
+        <v>2.8049838519244918E-2</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
+        <f t="shared" ref="J35:J45" si="21">ABS(G35-G34)</f>
+        <v>5.6099677038490281E-3</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <f t="shared" si="19"/>
+        <v>0.90845561985180312</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="20"/>
+        <v>2.5063274028916727E-2</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
+        <f t="shared" si="21"/>
+        <v>5.0126548057833897E-3</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <f t="shared" si="19"/>
+        <v>0.90401647642307881</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="20"/>
+        <v>2.2195717143621341E-2</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4391434287243126E-3</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <f t="shared" si="19"/>
+        <v>0.90011633770386668</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="20"/>
+        <v>1.9500693596060437E-2</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1">
+        <f t="shared" si="21"/>
+        <v>3.9001387192121317E-3</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <f t="shared" si="19"/>
+        <v>0.89671369518078214</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="20"/>
+        <v>1.7013212615422546E-2</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1">
+        <f t="shared" si="21"/>
+        <v>3.4026425230845314E-3</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <f t="shared" si="19"/>
+        <v>0.89376325405430368</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="20"/>
+        <v>1.4752205632392101E-2</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1">
+        <f t="shared" si="21"/>
+        <v>2.9504411264784647E-3</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <f t="shared" si="19"/>
+        <v>0.89121853699313136</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="20"/>
+        <v>1.2723585305861596E-2</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1">
+        <f t="shared" si="21"/>
+        <v>2.5447170611723191E-3</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <f t="shared" si="19"/>
+        <v>0.88903385608705077</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="20"/>
+        <v>1.0923404530402969E-2</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1">
+        <f t="shared" si="21"/>
+        <v>2.1846809060805938E-3</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <f t="shared" si="19"/>
+        <v>0.8871657019175917</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="20"/>
+        <v>9.3407708472952322E-3</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1">
+        <f t="shared" si="21"/>
+        <v>1.8681541694590686E-3</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <f t="shared" si="19"/>
+        <v>0.88557363600222583</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="20"/>
+        <v>7.9603295768291282E-3</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1">
+        <f t="shared" si="21"/>
+        <v>1.5920659153658701E-3</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <f t="shared" si="19"/>
+        <v>0.88422078619228672</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="20"/>
+        <v>6.7642490496957475E-3</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1">
+        <f t="shared" si="21"/>
+        <v>1.3528498099391051E-3</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <f t="shared" ref="G46:G56" si="22">G45-H46/$I$24</f>
+        <v>0.8830740421109341</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" ref="H46:H56" si="23">1/2*SIN(((G45+3)^2)/2)+LN(G45+2)/2-1</f>
+        <v>5.7337204067633429E-3</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
+        <f t="shared" ref="J46:J56" si="24">ABS(G46-G45)</f>
+        <v>1.1467440813526242E-3</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <f t="shared" si="22"/>
+        <v>0.882104036387516</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="23"/>
+        <v>4.8500286170907181E-3</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1">
+        <f t="shared" si="24"/>
+        <v>9.7000572341809921E-4</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F62B53-A274-455C-94ED-A831953DD8F7}">
+  <dimension ref="A1:Y56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <f>(A2+B2)/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:F11" si="0">1/2*SIN(((A2+3)^2)/2)+LN(A2+2)/2-1</f>
+        <v>-0.3997990303185347</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24866841514850191</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0290819180940769E-2</v>
+      </c>
+      <c r="G2">
+        <f>ABS(A2-C2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>IF(G2&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="X2" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>1/2*SIN(((X2+3)^2)/2)+LN(X2+2)/2-1</f>
+        <v>-0.895439793230425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>IF(D2*F2&gt;0,C2,A2)</f>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <f>IF(E2*F2&gt;0,C2,B2)</f>
+        <v>4.5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(A3+B3)/2</f>
+        <v>4.25</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.3997990303185347</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0290819180940769E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3723676205732378</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="1">ABS(A3-C3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H11" si="2">IF(G3&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y15" si="3">1/2*SIN(((X3+3)^2)/2)+LN(X3+2)/2-1</f>
+        <v>-0.54535128658715915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A11" si="4">IF(D3*F3&gt;0,C3,A3)</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B11" si="5">IF(E3*F3&gt;0,C3,B3)</f>
+        <v>4.25</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C15" si="6">(A4+B4)/2</f>
+        <v>4.125</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.3997990303185347</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3723676205732378</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.992588534350249E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.78897149983124382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="5"/>
+        <v>4.125</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="6"/>
+        <v>4.0625</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.3997990303185347</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.992588534350249E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19498227186826655</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.1421914685525758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0625</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="5"/>
+        <v>4.125</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="6"/>
+        <v>4.09375</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19498227186826655</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.992588534350249E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.2418331227690933E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.62061784956699395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="4"/>
+        <v>4.09375</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="5"/>
+        <v>4.125</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="6"/>
+        <v>4.109375</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.2418331227690933E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.992588534350249E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5878089508380775E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3985267645745729E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.109375</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="5"/>
+        <v>4.125</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="6"/>
+        <v>4.1171875</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5878089508380775E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.992588534350249E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.158659594241108E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.69581226391565743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="4"/>
+        <v>4.109375</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1171875</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="6"/>
+        <v>4.11328125</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5878089508380775E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.158659594241108E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1831358582178764E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.34001376811565509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="4"/>
+        <v>4.11328125</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1171875</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="6"/>
+        <v>4.115234375</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1831358582178764E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.158659594241108E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.8285928474042228E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7288793408055234E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="4"/>
+        <v>4.115234375</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1171875</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="6"/>
+        <v>4.1162109375</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.8285928474042228E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.158659594241108E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3329440776651547E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.57077466716878789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="X12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.23329393279120803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="X13" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.3997990303185347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="X14" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0290819180940769E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="X15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24866841514850191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>A24-B25/C25</f>
+        <v>4.1375881447406258</v>
+      </c>
+      <c r="B25" s="1">
+        <f>1/2*SIN(((A24+3)^2)/2)+LN(A24+2)/2-1</f>
+        <v>-0.3997990303185347</v>
+      </c>
+      <c r="C25" s="1">
+        <f>(1/2)*(COS(((A24+3)^2)/2)*(A24+3)+1/(A24+2))</f>
+        <v>2.9057665620262245</v>
+      </c>
+      <c r="D25" s="1">
+        <f>ABS(A25-A24)</f>
+        <v>0.13758814474062575</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>IF(D25&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="G25" s="1">
+        <f>G24-H25/$I$24</f>
+        <v>4.079959806063707</v>
+      </c>
+      <c r="H25" s="1">
+        <f>(1/2)*SIN(((G24+3)^2)/2)+LN(G24+2)/2-1</f>
+        <v>-0.3997990303185347</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
+        <f>ABS(G25-G24)</f>
+        <v>7.9959806063707006E-2</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>IF(J25&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" ref="A26:A29" si="7">A25-B26/C26</f>
+        <v>4.1161484213222419</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ref="B26:B34" si="8">1/2*SIN(((A25+3)^2)/2)+LN(A25+2)/2-1</f>
-        <v>-0.42138186085733298</v>
+        <v>7.3884537985525522E-2</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ref="C26:C34" si="9">(1/2)*(COS(((A25+3)^2)/2)*(A25+3)+1/(A25+2))</f>
-        <v>-2.0247562503055536</v>
+        <v>3.4461516384195079</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ref="D26:D34" si="10">ABS(A26-A25)</f>
-        <v>0.20811485866199586</v>
+        <v>2.1439723418383849E-2</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" ref="E26:E29" si="11">IF(D26&gt;0.001,"no","yes")</f>
+        <v>no</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G34" si="11">G25-H26/$I$24</f>
-        <v>0.98224934926143548</v>
+        <f t="shared" ref="G26:G47" si="12">G25-H26/$I$24</f>
+        <v>4.1064369049395708</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:H47" si="12">1/2*SIN(((G25+3)^2)/2)+LN(G25+2)/2-1</f>
-        <v>4.4767986047076658E-2</v>
+        <f t="shared" ref="H26:H47" si="13">1/2*SIN(((G25+3)^2)/2)+LN(G25+2)/2-1</f>
+        <v>-0.13238549437931746</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J34" si="13">ABS(G26-G25)</f>
-        <v>8.9535972094153538E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J26:J47" si="14">ABS(G26-G25)</f>
+        <v>2.6477098875863803E-2</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" ref="K26:K47" si="15">IF(J26&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="7"/>
-        <v>1.0991925566947647</v>
+        <v>4.1165834983687413</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="8"/>
-        <v>-5.7499156228214332E-2</v>
+        <v>-1.5566040914458679E-3</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="9"/>
-        <v>-1.2375709478271184</v>
+        <v>3.5777665219741506</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="10"/>
-        <v>4.6461300929186544E-2</v>
+        <v>4.3507704649936585E-4</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>yes</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="11"/>
-        <v>0.97326398442595918</v>
+        <f t="shared" si="12"/>
+        <v>4.1137317610585269</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="12"/>
-        <v>4.4926824177381475E-2</v>
+        <f t="shared" si="13"/>
+        <v>-3.6474280594778863E-2</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
+        <f t="shared" si="14"/>
+        <v>7.2948561189560834E-3</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1">
+        <f t="shared" si="12"/>
+        <v>4.1157747175319805</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="13"/>
-        <v>8.9853648354762949E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0908377561021285</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.5690989955998766E-3</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.90595806706280846</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="10"/>
-        <v>8.3548005926361579E-3</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="11"/>
-        <v>0.96437568394196282</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="12"/>
-        <v>4.4441502419981571E-2</v>
+        <v>-1.0214782367269692E-2</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
+        <f t="shared" si="14"/>
+        <v>2.0429564734536498E-3</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1">
+        <f t="shared" si="12"/>
+        <v>4.1163535021003801</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="13"/>
-        <v>8.8883004839963586E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0905264277111071</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.6244724248147833E-4</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.84299167711742073</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1132839102143706E-4</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="11"/>
-        <v>0.95570990257411315</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="12"/>
-        <v>4.3328906839248171E-2</v>
+        <v>-2.8939228419988527E-3</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <f t="shared" si="13"/>
-        <v>8.6657813678496787E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0905259902886066</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.6771016620473773E-7</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.84062929033985168</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="10"/>
-        <v>4.3742250044331854E-7</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="11"/>
-        <v>0.94738149810124028</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="12"/>
-        <v>4.1642022364364317E-2</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>5.787845683995485E-4</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1">
-        <f t="shared" si="13"/>
-        <v>8.3284044728728635E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0905259902877431</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.2586381349992735E-13</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.8406259703577208</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="10"/>
-        <v>8.6353146855344676E-13</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="11"/>
-        <v>0.93948861670333694</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="12"/>
-        <v>3.946440698951692E-2</v>
-      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1">
-        <f t="shared" si="13"/>
-        <v>7.8928813979033396E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0905259902877431</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.84062597035116826</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="11"/>
-        <v>0.93210837377892641</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="12"/>
-        <v>3.6901214622052425E-2</v>
-      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1">
-        <f t="shared" si="13"/>
-        <v>7.3802429244105294E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0905259902877431</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.84062597035116826</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="11"/>
-        <v>0.92529468646594293</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="12"/>
-        <v>3.4068436564917315E-2</v>
-      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1">
-        <f t="shared" si="13"/>
-        <v>6.8136873129834852E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0905259902877431</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.84062597035116826</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="11"/>
-        <v>0.91907824236143554</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="12"/>
-        <v>3.1082220522537174E-2</v>
-      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <f t="shared" si="13"/>
-        <v>6.2164441045073904E-3</v>
-      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
